--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26250" windowHeight="16725"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="178">
   <si>
     <t>task_id</t>
   </si>
@@ -2000,6 +2000,9 @@
 </t>
   </si>
   <si>
+    <t>函数功能表述问题</t>
+  </si>
+  <si>
     <t>/**
  * Produces all combinations of numeric arrays for each key in the given map object and returns them as a two-dimensional array
  *
@@ -2325,6 +2328,9 @@
 </t>
   </si>
   <si>
+    <t>导包问题</t>
+  </si>
+  <si>
     <t>/**
  * Converts a standard Base64 encoded string into a URL-safe Base64 encoded string.
  *
@@ -2758,6 +2764,9 @@
 npm notice Run `npm install -g npm@10.8.3` to update!
 npm notice 
 </t>
+  </si>
+  <si>
+    <t>异常捕获问题</t>
   </si>
   <si>
     <t>/**
@@ -3121,7 +3130,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3132,13 +3141,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3612,28 +3614,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3642,118 +3647,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4120,8 +4122,8 @@
   <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4839,7 +4841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" ht="409.5" spans="1:11">
+    <row r="21" ht="409.5" spans="1:12">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4872,6 +4874,9 @@
       </c>
       <c r="K21" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:11">
@@ -4888,22 +4893,22 @@
         <v>11</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>17</v>
@@ -4923,22 +4928,22 @@
         <v>11</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I23" s="2">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>17</v>
@@ -4958,28 +4963,28 @@
         <v>11</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" s="2">
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" ht="409.5" spans="1:11">
+    <row r="25" ht="409.5" spans="1:12">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4993,25 +4998,28 @@
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="26" ht="409.5" spans="1:11">
@@ -5028,22 +5036,22 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>17</v>
@@ -5063,22 +5071,22 @@
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I27" s="2">
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>17</v>
@@ -5098,63 +5106,66 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I28" s="2">
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" ht="409.5" spans="1:11">
-      <c r="A29" s="3">
+    <row r="29" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <v>168</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="2">
+      <c r="G29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="5">
         <v>1</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="30" ht="409.5" spans="1:11">
+    <row r="30" ht="409.5" spans="1:12">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5168,28 +5179,31 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L30" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="31" ht="409.5" spans="1:11">
+    <row r="31" ht="409.5" spans="1:12">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5203,63 +5217,69 @@
         <v>11</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I31" s="2">
         <v>1</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="L31" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="32" ht="409.5" spans="1:11">
-      <c r="A32" s="3">
+    <row r="32" s="1" customFormat="1" ht="409.5" spans="1:12">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <v>334</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I32" s="2">
+      <c r="F32" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="5">
         <v>1</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="33" ht="409.5" spans="1:11">
+    <row r="33" ht="409.5" spans="1:12">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5273,25 +5293,28 @@
         <v>11</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I33" s="2">
         <v>1</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="L33" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
@@ -7095,7 +7095,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7105,13 +7105,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -7593,28 +7586,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7623,134 +7619,135 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8103,2030 +8100,2135 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:13">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A2" s="4">
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>140</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
+      <c r="N2" s="6"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A3" s="4">
+    <row r="3" s="1" customFormat="1" spans="1:14">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>141</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="6">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="N3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="78.4" spans="1:13">
-      <c r="A4" s="4">
+    <row r="4" s="1" customFormat="1" spans="1:14">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>142</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3">
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>143</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="N5" s="3"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="6" s="1" customFormat="1" ht="409.5" spans="1:14">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>144</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="6">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="10" t="s">
         <v>44</v>
       </c>
+      <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3">
+    <row r="7" spans="1:14">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>145</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="N7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="136" spans="1:13">
-      <c r="A8" s="4">
+    <row r="8" s="1" customFormat="1" spans="1:14">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>146</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="N8" s="6"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A9" s="4">
+    <row r="9" s="1" customFormat="1" spans="1:14">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>147</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="N9" s="6"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A10" s="4">
+    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>148</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="N10" s="6"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A11" s="4">
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>149</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="6">
         <v>1</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>150</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I12" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="N12" s="6"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A13" s="4">
+    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>151</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="N13" s="6"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A14" s="5">
+    <row r="14" s="2" customFormat="1" ht="409.5" spans="1:14">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="8">
         <v>152</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="8">
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="11" t="s">
         <v>92</v>
       </c>
+      <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3">
+    <row r="15" spans="1:14">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>153</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I15" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="N15" s="3"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A16" s="5">
+    <row r="16" s="2" customFormat="1" ht="409.5" spans="1:14">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>154</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="8">
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="N16" s="8"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="408" customHeight="1" spans="1:13">
-      <c r="A17" s="4">
+    <row r="17" s="1" customFormat="1" ht="408" customHeight="1" spans="1:14">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>155</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="6">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="N17" s="6"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="408" customHeight="1" spans="1:13">
-      <c r="A18" s="4">
+    <row r="18" s="1" customFormat="1" ht="408" customHeight="1" spans="1:14">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>156</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="6">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="9" t="s">
         <v>116</v>
       </c>
+      <c r="N18" s="6"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="236.8" spans="1:13">
-      <c r="A19" s="4">
+    <row r="19" s="1" customFormat="1" spans="1:14">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>157</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="6">
         <v>1</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="9" t="s">
         <v>122</v>
       </c>
+      <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
+    <row r="20" s="1" customFormat="1" spans="1:14">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>158</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I20" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>0</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="6" t="s">
         <v>127</v>
       </c>
+      <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3">
+    <row r="21" s="1" customFormat="1" spans="1:14">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>159</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="I21" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>0</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="N21" s="6"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="236.8" spans="1:13">
+    <row r="22" s="1" customFormat="1" ht="236.8" spans="1:14">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>160</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="6">
         <v>1</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="10" t="s">
         <v>139</v>
       </c>
+      <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3">
+    <row r="23" spans="1:14">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>161</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="I23" t="s">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="3" t="s">
         <v>145</v>
       </c>
+      <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3">
+    <row r="24" spans="1:14">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>162</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="3" t="s">
         <v>152</v>
       </c>
+      <c r="N24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="222.4" spans="1:13">
-      <c r="A25" s="4">
+    <row r="25" s="1" customFormat="1" spans="1:14">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>163</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="6">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="9" t="s">
         <v>158</v>
       </c>
+      <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3">
+    <row r="26" spans="1:14">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>164</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="3" t="s">
         <v>163</v>
       </c>
+      <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3">
+    <row r="27" spans="1:14">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>165</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3">
+    <row r="28" spans="1:14">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>166</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="3" t="s">
         <v>174</v>
       </c>
+      <c r="N28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="408" customHeight="1" spans="1:13">
-      <c r="A29" s="4">
+    <row r="29" s="1" customFormat="1" ht="408" customHeight="1" spans="1:14">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>167</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="6">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" s="9" t="s">
         <v>180</v>
       </c>
+      <c r="N29" s="6"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="30" s="1" customFormat="1" ht="409.5" spans="1:14">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>168</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="10" t="s">
         <v>186</v>
       </c>
+      <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3">
+    <row r="31" s="1" customFormat="1" spans="1:14">
+      <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>169</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>0</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="6" t="s">
         <v>192</v>
       </c>
+      <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3">
+    <row r="32" spans="1:14">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="3">
         <v>331</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="I32" t="s">
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="N32" s="3"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="33" s="1" customFormat="1" ht="409.5" spans="1:14">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>334</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="6">
         <v>1</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="10" t="s">
         <v>204</v>
       </c>
+      <c r="N33" s="6"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="409.5" spans="1:13">
+    <row r="34" s="1" customFormat="1" ht="409.5" spans="1:14">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>341</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="6">
         <v>1</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="N34" s="6"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="408" customHeight="1" spans="1:13">
+    <row r="35" s="1" customFormat="1" ht="408" customHeight="1" spans="1:14">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>342</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K35" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="10" t="s">
         <v>216</v>
       </c>
+      <c r="N35" s="6"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A36" s="4">
+    <row r="36" s="1" customFormat="1" spans="1:14">
+      <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>343</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="J36" s="1">
+      <c r="J36" s="6">
         <v>1</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M36" s="6" t="s">
+      <c r="M36" s="9" t="s">
         <v>222</v>
       </c>
+      <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="3">
+    <row r="37" spans="1:14">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="3">
         <v>565</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I37" t="s">
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="3">
+    <row r="38" s="1" customFormat="1" spans="1:14">
+      <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>566</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="I38" t="s">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="6">
         <v>0</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="L38" t="s">
+      <c r="L38" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="6" t="s">
         <v>234</v>
       </c>
+      <c r="N38" s="6"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="380.8" spans="1:13">
-      <c r="A39" s="4">
+    <row r="39" s="1" customFormat="1" spans="1:14">
+      <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>567</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J39" s="6">
         <v>1</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="3">
+    <row r="40" spans="1:14">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>569</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="I40" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="L40" t="s">
+      <c r="L40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="N40" s="3"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A41" s="4">
+    <row r="41" s="1" customFormat="1" spans="1:14">
+      <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>570</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="6">
         <v>1</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="9" t="s">
         <v>252</v>
       </c>
+      <c r="N41" s="6"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A42" s="4">
+    <row r="42" s="1" customFormat="1" spans="1:14">
+      <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>571</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="6"/>
+      <c r="I42" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="6">
         <v>1</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="3">
+    <row r="43" spans="1:14">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>572</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I43" t="s">
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43" s="3" t="s">
         <v>264</v>
       </c>
+      <c r="N43" s="3"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A44" s="4">
+    <row r="44" s="1" customFormat="1" spans="1:14">
+      <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>575</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="J44" s="1">
+      <c r="J44" s="6">
         <v>1</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" s="9" t="s">
         <v>270</v>
       </c>
+      <c r="N44" s="6"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A45" s="4">
+    <row r="45" s="1" customFormat="1" spans="1:14">
+      <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>576</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="6">
         <v>1</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="9" t="s">
         <v>276</v>
       </c>
+      <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="3">
+    <row r="46" spans="1:14">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>577</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I46" t="s">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L46" t="s">
+      <c r="L46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="3">
+    <row r="47" spans="1:14">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>578</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="I47" t="s">
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L47" t="s">
+      <c r="L47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="3" t="s">
         <v>286</v>
       </c>
+      <c r="N47" s="3"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="409.5" spans="1:13">
-      <c r="A48" s="4">
+    <row r="48" s="1" customFormat="1" spans="1:14">
+      <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>581</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="6">
         <v>1</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="9" t="s">
         <v>292</v>
       </c>
+      <c r="N48" s="6"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="193.6" spans="1:13">
-      <c r="A49" s="4">
+    <row r="49" s="1" customFormat="1" spans="1:14">
+      <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>582</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="6">
         <v>1</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M49" s="6" t="s">
+      <c r="M49" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="3">
+    <row r="50" spans="1:14">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>583</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="I50" t="s">
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L50" t="s">
+      <c r="L50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50" s="3" t="s">
         <v>304</v>
       </c>
+      <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="3">
+    <row r="51" spans="1:14">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>584</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="I51" t="s">
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="3">
+    <row r="52" spans="1:14">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>585</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="I52" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="3" t="s">
         <v>314</v>
       </c>
+      <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="3">
+    <row r="53" spans="1:14">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="3">
         <v>586</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="I53" t="s">
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="3" t="s">
         <v>319</v>
       </c>
+      <c r="N53" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
+++ b/analysis/model_answer_result/gpt-3.5-turbo/gpt-3.5-turbo_typescript.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="323">
   <si>
     <t>task_id</t>
   </si>
@@ -3260,7 +3260,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.064 s
+Time:        0.407 s, estimated 2 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3273,7 +3273,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.056 s
+Time:        0.369 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3334,7 +3334,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       4 failed, 1 passed, 5 total
 Snapshots:   0 total
-Time:        1.061 s
+Time:        0.42 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3347,7 +3347,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.184 s
+Time:        0.382 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3360,7 +3360,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       7 passed, 7 total
 Snapshots:   0 total
-Time:        1.046 s, estimated 2 s
+Time:        0.379 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3373,7 +3373,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.073 s
+Time:        0.371 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3386,7 +3386,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.051 s
+Time:        0.392 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3399,7 +3399,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.101 s
+Time:        0.38 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3412,7 +3412,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.052 s, estimated 2 s
+Time:        0.403 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3425,20 +3425,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.061 s
-npm notice 
-npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
-npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
-npm notice Run `npm install -g npm@10.9.0` to update!
-npm notice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PASS  ./test.test.ts
-Test Suites: 1 passed, 1 total
-Tests:       5 passed, 5 total
-Snapshots:   0 total
-Time:        0.366 s, estimated 1 s
+Time:        0.383 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3451,7 +3438,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.051 s
+Time:        0.394 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3512,7 +3499,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       4 failed, 1 passed, 5 total
 Snapshots:   0 total
-Time:        1.085 s
+Time:        0.404 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3525,7 +3512,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.045 s
+Time:        0.387 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3548,7 +3535,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       0 total
 Snapshots:   0 total
-Time:        1.062 s
+Time:        1.08 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3561,7 +3548,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.054 s
+Time:        0.395 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3574,7 +3561,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.05 s
+Time:        0.411 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3635,7 +3622,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       4 failed, 4 total
 Snapshots:   0 total
-Time:        1.072 s
+Time:        0.402 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3648,7 +3635,20 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.05 s
+Time:        0.396 s, estimated 1 s
+npm notice 
+npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
+npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
+npm notice Run `npm install -g npm@10.9.0` to update!
+npm notice 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASS  ./test.test.ts
+Test Suites: 1 passed, 1 total
+Tests:       5 passed, 5 total
+Snapshots:   0 total
+Time:        0.391 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3690,7 +3690,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       0 total
 Snapshots:   0 total
-Time:        1.284 s
+Time:        1.102 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3703,7 +3703,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.251 s
+Time:        0.393 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3716,7 +3716,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.051 s, estimated 2 s
+Time:        0.378 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3729,7 +3729,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.087 s
+Time:        0.389 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3742,7 +3742,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        1.076 s
+Time:        0.39 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3755,7 +3755,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        0.381 s, estimated 1 s
+Time:        0.404 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3768,20 +3768,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        0.376 s, estimated 1 s
-npm notice 
-npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
-npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
-npm notice Run `npm install -g npm@10.9.0` to update!
-npm notice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PASS  ./test.test.ts
-Test Suites: 1 passed, 1 total
-Tests:       5 passed, 5 total
-Snapshots:   0 total
-Time:        1.052 s
+Time:        0.368 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3794,20 +3781,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.078 s
-npm notice 
-npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
-npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
-npm notice Run `npm install -g npm@10.9.0` to update!
-npm notice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PASS  ./test.test.ts
-Test Suites: 1 passed, 1 total
-Tests:       5 passed, 5 total
-Snapshots:   0 total
-Time:        1.049 s
+Time:        0.39 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3820,7 +3794,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       3 passed, 3 total
 Snapshots:   0 total
-Time:        1.045 s
+Time:        0.392 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -3917,20 +3891,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       7 failed, 7 total
 Snapshots:   0 total
-Time:        1.078 s
-npm notice 
-npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
-npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
-npm notice Run `npm install -g npm@10.9.0` to update!
-npm notice 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PASS  ./test.test.ts
-Test Suites: 1 passed, 1 total
-Tests:       5 passed, 5 total
-Snapshots:   0 total
-Time:        1.066 s
+Time:        0.435 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4044,7 +4005,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       4 failed, 1 passed, 5 total
 Snapshots:   0 total
-Time:        1.14 s
+Time:        0.423 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4079,7 +4040,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       0 total
 Snapshots:   0 total
-Time:        1.037 s, estimated 2 s
+Time:        1.082 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4092,7 +4053,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.076 s
+Time:        0.379 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4105,7 +4066,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.068 s
+Time:        0.385 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4118,7 +4079,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.055 s
+Time:        0.377 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4131,7 +4092,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.04 s
+Time:        0.368 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4157,7 +4118,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       0 total
 Snapshots:   0 total
-Time:        1.078 s
+Time:        1.12 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4218,7 +4179,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       4 failed, 1 passed, 5 total
 Snapshots:   0 total
-Time:        1.084 s
+Time:        0.487 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4231,7 +4192,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       8 passed, 8 total
 Snapshots:   0 total
-Time:        1.074 s
+Time:        0.43 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4244,7 +4205,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.044 s
+Time:        0.398 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4257,7 +4218,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        1.055 s
+Time:        0.433 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4270,7 +4231,20 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        0.368 s, estimated 1 s
+Time:        0.512 s, estimated 1 s
+npm notice 
+npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
+npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
+npm notice Run `npm install -g npm@10.9.0` to update!
+npm notice 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PASS  ./test.test.ts
+Test Suites: 1 passed, 1 total
+Tests:       5 passed, 5 total
+Snapshots:   0 total
+Time:        0.472 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4283,7 +4257,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       7 passed, 7 total
 Snapshots:   0 total
-Time:        1.052 s
+Time:        0.419 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4296,7 +4270,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       4 passed, 4 total
 Snapshots:   0 total
-Time:        1.046 s
+Time:        0.444 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4309,7 +4283,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       6 passed, 6 total
 Snapshots:   0 total
-Time:        0.377 s, estimated 1 s
+Time:        0.405 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4322,7 +4296,7 @@
 Test Suites: 1 passed, 1 total
 Tests:       5 passed, 5 total
 Snapshots:   0 total
-Time:        0.369 s, estimated 1 s
+Time:        0.399 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -4359,7 +4333,7 @@
 Test Suites: 1 failed, 1 total
 Tests:       2 failed, 4 passed, 6 total
 Snapshots:   0 total
-Time:        0.403 s, estimated 1 s
+Time:        0.432 s, estimated 1 s
 npm notice 
 npm notice New minor version of npm available! 10.5.2 -&gt; 10.9.0
 npm notice Changelog: &lt;https://github.com/npm/cli/releases/tag/v10.9.0&gt;
@@ -7104,10 +7078,10 @@
         <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7142,10 +7116,10 @@
         <v>224</v>
       </c>
       <c r="L3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M3" t="s">
         <v>272</v>
-      </c>
-      <c r="M3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7180,10 +7154,10 @@
         <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7218,10 +7192,10 @@
         <v>226</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7256,10 +7230,10 @@
         <v>227</v>
       </c>
       <c r="L6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7294,10 +7268,10 @@
         <v>228</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7332,10 +7306,10 @@
         <v>229</v>
       </c>
       <c r="L8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7370,10 +7344,10 @@
         <v>230</v>
       </c>
       <c r="L9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7408,10 +7382,10 @@
         <v>231</v>
       </c>
       <c r="L10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7446,10 +7420,10 @@
         <v>232</v>
       </c>
       <c r="L11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7481,13 +7455,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7519,13 +7493,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7557,13 +7531,13 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7595,13 +7569,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7633,13 +7607,13 @@
         <v>1</v>
       </c>
       <c r="K16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7671,13 +7645,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M17" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7709,13 +7683,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L18" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7747,13 +7721,13 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L19" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M19" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -7785,13 +7759,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -7823,13 +7797,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="L21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -7864,10 +7838,10 @@
         <v>242</v>
       </c>
       <c r="L22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -7902,10 +7876,10 @@
         <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M23" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -7940,10 +7914,10 @@
         <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -7978,10 +7952,10 @@
         <v>245</v>
       </c>
       <c r="L25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M25" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -8016,10 +7990,10 @@
         <v>246</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M26" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -8054,10 +8028,10 @@
         <v>247</v>
       </c>
       <c r="L27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -8089,13 +8063,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -8127,13 +8101,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8165,13 +8139,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -8203,13 +8177,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -8241,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -8279,13 +8253,13 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -8317,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -8355,13 +8329,13 @@
         <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -8396,13 +8370,13 @@
         <v>1</v>
       </c>
       <c r="K36" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M36" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8434,13 +8408,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -8472,13 +8446,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -8510,13 +8484,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8548,13 +8522,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M40" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8586,13 +8560,13 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8624,13 +8598,13 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L42" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8662,13 +8636,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8700,13 +8674,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8738,13 +8712,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -8776,13 +8750,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -8814,13 +8788,13 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8852,13 +8826,13 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L48" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M48" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -8890,13 +8864,13 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M49" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -8928,13 +8902,13 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M50" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -8966,13 +8940,13 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
+        <v>230</v>
+      </c>
+      <c r="L51" t="s">
         <v>270</v>
       </c>
-      <c r="L51" t="s">
-        <v>272</v>
-      </c>
       <c r="M51" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -9004,13 +8978,13 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -9042,13 +9016,13 @@
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M53" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
